--- a/data_processed/20250818/USDSOFRCSA_USD_20250818.xlsx
+++ b/data_processed/20250818/USDSOFRCSA_USD_20250818.xlsx
@@ -517,7 +517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,140 +570,340 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1Y</t>
+          <t>3M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SOFROIS</t>
+          <t>SQZ25</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>OIS</t>
+          <t>FUTURE</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.03853</v>
+        <v>96.19499999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2Y</t>
+          <t>5M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SOFROIS</t>
+          <t>SQF26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>OIS</t>
+          <t>FUTURE</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.035269</v>
+        <v>96.29000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3Y</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SOFROIS</t>
+          <t>SQG26</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>OIS</t>
+          <t>FUTURE</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.034435</v>
+        <v>96.38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5Y</t>
+          <t>7M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SOFROIS</t>
+          <t>SQH26</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>OIS</t>
+          <t>FUTURE</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.034973</v>
+        <v>96.41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10Y</t>
+          <t>9M</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SOFROIS</t>
+          <t>SQM26</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>OIS</t>
+          <t>FUTURE</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.038171</v>
+        <v>96.63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20Y</t>
+          <t>12M</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SOFROIS</t>
+          <t>SQU26</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>OIS</t>
+          <t>FUTURE</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.041485</v>
+        <v>96.785</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>15M</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SQZ26</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>FUTURE</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>96.86499999999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0M</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SQQ25</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>FUTURE</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>95.78</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>0M</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SQU25</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>FUTURE</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>95.8925</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1M</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SQV25</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>FUTURE</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3M</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SQX25</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>FUTURE</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>96.11499999999999</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2Y</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SOFROIS</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>OIS</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.035269</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3Y</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SOFROIS</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>OIS</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.034435</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>5Y</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SOFROIS</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>OIS</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.034973</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>10Y</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SOFROIS</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>OIS</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.038171</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>20Y</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SOFROIS</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>OIS</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.041485</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>30Y</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>SOFROIS</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>OIS</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D19" t="n">
         <v>0.041203</v>
       </c>
     </row>
